--- a/2024/raw-fi.xlsx
+++ b/2024/raw-fi.xlsx
@@ -4010,36 +4010,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Z684" displayName="Form_Responses1" name="Form_Responses1" id="1">
-  <autoFilter ref="$A$1:$Z$684">
-    <filterColumn colId="20">
-      <filters>
-        <filter val="5384"/>
-        <filter val="5275"/>
-        <filter val="2327"/>
-        <filter val="3300"/>
-        <filter val="3680"/>
-        <filter val="6950"/>
-        <filter val="2900"/>
-        <filter val="5075"/>
-        <filter val="2000"/>
-        <filter val="6041"/>
-        <filter val="1970"/>
-        <filter val="4448"/>
-        <filter val="6640"/>
-        <filter val="7850"/>
-        <filter val="6875"/>
-        <filter val="3800"/>
-        <filter val="6518"/>
-        <filter val="9800"/>
-        <filter val="3380"/>
-        <filter val="8050"/>
-        <filter val="2860"/>
-        <filter val="3720"/>
-        <filter val="2646"/>
-        <filter val="1200"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$Z$684"/>
   <tableColumns count="26">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Oletko palkansaaja vai laskuttaja?" id="2"/>
@@ -4385,7 +4356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="4">
         <v>45572.419860636575</v>
       </c>
@@ -4447,7 +4418,7 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="8">
         <v>45572.420594675925</v>
       </c>
@@ -4491,7 +4462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="10">
         <v>45572.420974594905</v>
       </c>
@@ -4541,7 +4512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="8">
         <v>45572.421534305555</v>
       </c>
@@ -4594,7 +4565,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="10">
         <v>45572.42175952546</v>
       </c>
@@ -4644,7 +4615,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="8">
         <v>45572.42193768518</v>
       </c>
@@ -4694,7 +4665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="10">
         <v>45572.42215568287</v>
       </c>
@@ -4744,7 +4715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="8">
         <v>45572.42269841435</v>
       </c>
@@ -4800,7 +4771,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="10">
         <v>45572.42278541667</v>
       </c>
@@ -4856,7 +4827,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="8">
         <v>45572.42285636574</v>
       </c>
@@ -4906,7 +4877,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="10">
         <v>45572.42322494213</v>
       </c>
@@ -4947,7 +4918,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="8">
         <v>45572.42358754629</v>
       </c>
@@ -4991,7 +4962,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="10">
         <v>45572.42403232639</v>
       </c>
@@ -5044,7 +5015,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="8">
         <v>45572.424180856484</v>
       </c>
@@ -5103,7 +5074,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="10">
         <v>45572.42450533565</v>
       </c>
@@ -5156,7 +5127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="8">
         <v>45572.42544474537</v>
       </c>
@@ -5212,7 +5183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="10">
         <v>45572.425930833335</v>
       </c>
@@ -5268,7 +5239,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="8">
         <v>45572.42614462963</v>
       </c>
@@ -5318,7 +5289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="10">
         <v>45572.42622072916</v>
       </c>
@@ -5371,7 +5342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" hidden="1">
+    <row r="21">
       <c r="A21" s="8">
         <v>45572.427069537036</v>
       </c>
@@ -5424,7 +5395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" hidden="1">
+    <row r="22">
       <c r="A22" s="10">
         <v>45572.42732875</v>
       </c>
@@ -5462,7 +5433,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" hidden="1">
+    <row r="23">
       <c r="A23" s="8">
         <v>45572.42763818287</v>
       </c>
@@ -5518,7 +5489,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" hidden="1">
+    <row r="24">
       <c r="A24" s="10">
         <v>45572.42799776621</v>
       </c>
@@ -5574,7 +5545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="A25" s="8">
         <v>45572.42821064815</v>
       </c>
@@ -5627,7 +5598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="A26" s="10">
         <v>45572.429356215274</v>
       </c>
@@ -5680,7 +5651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="8">
         <v>45572.42977743056</v>
       </c>
@@ -5721,7 +5692,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="10">
         <v>45572.4301570949</v>
       </c>
@@ -5777,7 +5748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" hidden="1">
+    <row r="29">
       <c r="A29" s="8">
         <v>45572.43029395833</v>
       </c>
@@ -5830,7 +5801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="10">
         <v>45572.43234197916</v>
       </c>
@@ -5883,7 +5854,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="8">
         <v>45572.43391396991</v>
       </c>
@@ -5933,7 +5904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="10">
         <v>45572.43563537037</v>
       </c>
@@ -5989,7 +5960,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" hidden="1">
+    <row r="33">
       <c r="A33" s="8">
         <v>45572.43603582176</v>
       </c>
@@ -6039,7 +6010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" hidden="1">
+    <row r="34">
       <c r="A34" s="10">
         <v>45572.43681344907</v>
       </c>
@@ -6089,7 +6060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="8">
         <v>45572.43715719908</v>
       </c>
@@ -6145,7 +6116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" hidden="1">
+    <row r="36">
       <c r="A36" s="10">
         <v>45572.43818745371</v>
       </c>
@@ -6198,7 +6169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" hidden="1">
+    <row r="37">
       <c r="A37" s="8">
         <v>45572.43874738426</v>
       </c>
@@ -6254,7 +6225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" hidden="1">
+    <row r="38">
       <c r="A38" s="10">
         <v>45572.438991145835</v>
       </c>
@@ -6304,7 +6275,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" hidden="1">
+    <row r="39">
       <c r="A39" s="8">
         <v>45572.43988239583</v>
       </c>
@@ -6354,7 +6325,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" hidden="1">
+    <row r="40">
       <c r="A40" s="10">
         <v>45572.4441607176</v>
       </c>
@@ -6404,7 +6375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" hidden="1">
+    <row r="41">
       <c r="A41" s="8">
         <v>45572.44840241898</v>
       </c>
@@ -6457,7 +6428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" hidden="1">
+    <row r="42">
       <c r="A42" s="10">
         <v>45572.44850239583</v>
       </c>
@@ -6510,7 +6481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" hidden="1">
+    <row r="43">
       <c r="A43" s="8">
         <v>45572.45109650463</v>
       </c>
@@ -6560,7 +6531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" hidden="1">
+    <row r="44">
       <c r="A44" s="10">
         <v>45572.45294083333</v>
       </c>
@@ -6604,7 +6575,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" hidden="1">
+    <row r="45">
       <c r="A45" s="8">
         <v>45572.453268240744</v>
       </c>
@@ -6654,7 +6625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" hidden="1">
+    <row r="46">
       <c r="A46" s="10">
         <v>45572.453881354166</v>
       </c>
@@ -6710,7 +6681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" hidden="1">
+    <row r="47">
       <c r="A47" s="8">
         <v>45572.45432133102</v>
       </c>
@@ -6763,7 +6734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" hidden="1">
+    <row r="48">
       <c r="A48" s="10">
         <v>45572.45584042824</v>
       </c>
@@ -6816,7 +6787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" hidden="1">
+    <row r="49">
       <c r="A49" s="8">
         <v>45572.456570891205</v>
       </c>
@@ -6869,7 +6840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" hidden="1">
+    <row r="50">
       <c r="A50" s="10">
         <v>45572.45669219908</v>
       </c>
@@ -6919,7 +6890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" hidden="1">
+    <row r="51">
       <c r="A51" s="8">
         <v>45572.457217268515</v>
       </c>
@@ -6963,7 +6934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" hidden="1">
+    <row r="52">
       <c r="A52" s="10">
         <v>45572.45730025463</v>
       </c>
@@ -7013,7 +6984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" hidden="1">
+    <row r="53">
       <c r="A53" s="8">
         <v>45572.45822346065</v>
       </c>
@@ -7066,7 +7037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" hidden="1">
+    <row r="54">
       <c r="A54" s="10">
         <v>45572.46571055555</v>
       </c>
@@ -7122,7 +7093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" hidden="1">
+    <row r="55">
       <c r="A55" s="8">
         <v>45572.4662058449</v>
       </c>
@@ -7169,7 +7140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" hidden="1">
+    <row r="56">
       <c r="A56" s="10">
         <v>45572.46722701388</v>
       </c>
@@ -7222,7 +7193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" hidden="1">
+    <row r="57">
       <c r="A57" s="8">
         <v>45572.46951472222</v>
       </c>
@@ -7278,7 +7249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" hidden="1">
+    <row r="58">
       <c r="A58" s="10">
         <v>45572.47133741898</v>
       </c>
@@ -7331,7 +7302,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" hidden="1">
+    <row r="59">
       <c r="A59" s="8">
         <v>45572.48033305556</v>
       </c>
@@ -7387,7 +7358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" hidden="1">
+    <row r="60">
       <c r="A60" s="10">
         <v>45572.48193356481</v>
       </c>
@@ -7434,7 +7405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" hidden="1">
+    <row r="61">
       <c r="A61" s="8">
         <v>45572.484577407406</v>
       </c>
@@ -7537,7 +7508,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" hidden="1">
+    <row r="63">
       <c r="A63" s="8">
         <v>45572.49181043982</v>
       </c>
@@ -7587,7 +7558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" hidden="1">
+    <row r="64">
       <c r="A64" s="10">
         <v>45572.492667557875</v>
       </c>
@@ -7637,7 +7608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" hidden="1">
+    <row r="65">
       <c r="A65" s="8">
         <v>45572.493731759256</v>
       </c>
@@ -7684,7 +7655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" hidden="1">
+    <row r="66">
       <c r="A66" s="10">
         <v>45572.49374914352</v>
       </c>
@@ -7731,7 +7702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" hidden="1">
+    <row r="67">
       <c r="A67" s="8">
         <v>45572.49521824074</v>
       </c>
@@ -7781,7 +7752,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" hidden="1">
+    <row r="68">
       <c r="A68" s="10">
         <v>45572.49832034722</v>
       </c>
@@ -7831,7 +7802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" hidden="1">
+    <row r="69">
       <c r="A69" s="8">
         <v>45572.50300229166</v>
       </c>
@@ -7884,7 +7855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" hidden="1">
+    <row r="70">
       <c r="A70" s="10">
         <v>45572.50713648148</v>
       </c>
@@ -7931,7 +7902,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" hidden="1">
+    <row r="71">
       <c r="A71" s="8">
         <v>45572.50774804398</v>
       </c>
@@ -7978,7 +7949,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" hidden="1">
+    <row r="72">
       <c r="A72" s="10">
         <v>45572.51149048611</v>
       </c>
@@ -8022,7 +7993,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" hidden="1">
+    <row r="73">
       <c r="A73" s="8">
         <v>45572.511751909726</v>
       </c>
@@ -8066,7 +8037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" hidden="1">
+    <row r="74">
       <c r="A74" s="10">
         <v>45572.512621747686</v>
       </c>
@@ -8116,7 +8087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" hidden="1">
+    <row r="75">
       <c r="A75" s="8">
         <v>45572.51275300926</v>
       </c>
@@ -8157,7 +8128,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" hidden="1">
+    <row r="76">
       <c r="A76" s="10">
         <v>45572.516016875</v>
       </c>
@@ -8207,7 +8178,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" hidden="1">
+    <row r="77">
       <c r="A77" s="8">
         <v>45572.516161458334</v>
       </c>
@@ -8260,7 +8231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" hidden="1">
+    <row r="78">
       <c r="A78" s="10">
         <v>45572.516324421296</v>
       </c>
@@ -8301,7 +8272,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" hidden="1">
+    <row r="79">
       <c r="A79" s="8">
         <v>45572.522404675925</v>
       </c>
@@ -8357,7 +8328,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="80" hidden="1">
+    <row r="80">
       <c r="A80" s="10">
         <v>45572.52341927083</v>
       </c>
@@ -8404,7 +8375,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" hidden="1">
+    <row r="81">
       <c r="A81" s="8">
         <v>45572.526082233795</v>
       </c>
@@ -8457,7 +8428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" hidden="1">
+    <row r="82">
       <c r="A82" s="10">
         <v>45572.52737428241</v>
       </c>
@@ -8504,7 +8475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" hidden="1">
+    <row r="83">
       <c r="A83" s="8">
         <v>45572.52808765046</v>
       </c>
@@ -8551,7 +8522,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="84" hidden="1">
+    <row r="84">
       <c r="A84" s="10">
         <v>45572.52829162037</v>
       </c>
@@ -8601,7 +8572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" hidden="1">
+    <row r="85">
       <c r="A85" s="8">
         <v>45572.52855407407</v>
       </c>
@@ -8654,7 +8625,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="86" hidden="1">
+    <row r="86">
       <c r="A86" s="10">
         <v>45572.538803310184</v>
       </c>
@@ -8701,7 +8672,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="87" hidden="1">
+    <row r="87">
       <c r="A87" s="8">
         <v>45572.53982612268</v>
       </c>
@@ -8748,7 +8719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" hidden="1">
+    <row r="88">
       <c r="A88" s="10">
         <v>45572.55157739583</v>
       </c>
@@ -8798,7 +8769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" hidden="1">
+    <row r="89">
       <c r="A89" s="8">
         <v>45572.552745671295</v>
       </c>
@@ -8854,7 +8825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" hidden="1">
+    <row r="90">
       <c r="A90" s="10">
         <v>45572.556797604164</v>
       </c>
@@ -8895,7 +8866,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" hidden="1">
+    <row r="91">
       <c r="A91" s="8">
         <v>45572.56084997686</v>
       </c>
@@ -8951,7 +8922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" hidden="1">
+    <row r="92">
       <c r="A92" s="10">
         <v>45572.566674166665</v>
       </c>
@@ -8992,7 +8963,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="93" hidden="1">
+    <row r="93">
       <c r="A93" s="8">
         <v>45572.56844707176</v>
       </c>
@@ -9039,7 +9010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" hidden="1">
+    <row r="94">
       <c r="A94" s="10">
         <v>45572.57151483797</v>
       </c>
@@ -9092,7 +9063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" hidden="1">
+    <row r="95">
       <c r="A95" s="8">
         <v>45572.572008414354</v>
       </c>
@@ -9148,7 +9119,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="96" hidden="1">
+    <row r="96">
       <c r="A96" s="10">
         <v>45572.57277482639</v>
       </c>
@@ -9198,7 +9169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" hidden="1">
+    <row r="97">
       <c r="A97" s="8">
         <v>45572.57382462963</v>
       </c>
@@ -9251,7 +9222,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" hidden="1">
+    <row r="98">
       <c r="A98" s="10">
         <v>45572.5778991088</v>
       </c>
@@ -9304,7 +9275,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" hidden="1">
+    <row r="99">
       <c r="A99" s="8">
         <v>45572.57943982639</v>
       </c>
@@ -9354,7 +9325,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" hidden="1">
+    <row r="100">
       <c r="A100" s="10">
         <v>45572.58974725695</v>
       </c>
@@ -9410,7 +9381,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" hidden="1">
+    <row r="101">
       <c r="A101" s="8">
         <v>45572.590274918985</v>
       </c>
@@ -9454,7 +9425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" hidden="1">
+    <row r="102">
       <c r="A102" s="10">
         <v>45572.59163829861</v>
       </c>
@@ -9504,7 +9475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" hidden="1">
+    <row r="103">
       <c r="A103" s="8">
         <v>45572.59597993056</v>
       </c>
@@ -9548,7 +9519,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" hidden="1">
+    <row r="104">
       <c r="A104" s="10">
         <v>45572.596745636576</v>
       </c>
@@ -9598,7 +9569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" hidden="1">
+    <row r="105">
       <c r="A105" s="8">
         <v>45572.60057144676</v>
       </c>
@@ -9648,7 +9619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" hidden="1">
+    <row r="106">
       <c r="A106" s="10">
         <v>45572.604090416666</v>
       </c>
@@ -9698,7 +9669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" hidden="1">
+    <row r="107">
       <c r="A107" s="8">
         <v>45572.60515653936</v>
       </c>
@@ -9742,7 +9713,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="108" hidden="1">
+    <row r="108">
       <c r="A108" s="10">
         <v>45572.61187596065</v>
       </c>
@@ -9798,7 +9769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" hidden="1">
+    <row r="109">
       <c r="A109" s="8">
         <v>45572.61421600694</v>
       </c>
@@ -9857,7 +9828,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="110" hidden="1">
+    <row r="110">
       <c r="A110" s="10">
         <v>45572.61810680556</v>
       </c>
@@ -9901,7 +9872,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" hidden="1">
+    <row r="111">
       <c r="A111" s="8">
         <v>45572.618625856485</v>
       </c>
@@ -9945,7 +9916,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" hidden="1">
+    <row r="112">
       <c r="A112" s="10">
         <v>45572.62209372685</v>
       </c>
@@ -9995,7 +9966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" hidden="1">
+    <row r="113">
       <c r="A113" s="8">
         <v>45572.62342836805</v>
       </c>
@@ -10036,7 +10007,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" hidden="1">
+    <row r="114">
       <c r="A114" s="10">
         <v>45572.62438542824</v>
       </c>
@@ -10083,7 +10054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" hidden="1">
+    <row r="115">
       <c r="A115" s="8">
         <v>45572.627089421294</v>
       </c>
@@ -10136,7 +10107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" hidden="1">
+    <row r="116">
       <c r="A116" s="10">
         <v>45572.627889375</v>
       </c>
@@ -10189,7 +10160,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="117" hidden="1">
+    <row r="117">
       <c r="A117" s="8">
         <v>45572.63218903935</v>
       </c>
@@ -10236,7 +10207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" hidden="1">
+    <row r="118">
       <c r="A118" s="10">
         <v>45572.63235439815</v>
       </c>
@@ -10295,7 +10266,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="119" hidden="1">
+    <row r="119">
       <c r="A119" s="8">
         <v>45572.63242792824</v>
       </c>
@@ -10342,7 +10313,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="120" hidden="1">
+    <row r="120">
       <c r="A120" s="10">
         <v>45572.639427118054</v>
       </c>
@@ -10389,7 +10360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" hidden="1">
+    <row r="121">
       <c r="A121" s="8">
         <v>45572.64138047454</v>
       </c>
@@ -10442,7 +10413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" hidden="1">
+    <row r="122">
       <c r="A122" s="10">
         <v>45572.647913622684</v>
       </c>
@@ -10495,7 +10466,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="123" hidden="1">
+    <row r="123">
       <c r="A123" s="8">
         <v>45572.650144444444</v>
       </c>
@@ -10545,7 +10516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" hidden="1">
+    <row r="124">
       <c r="A124" s="10">
         <v>45572.65113416666</v>
       </c>
@@ -10601,7 +10572,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="125" hidden="1">
+    <row r="125">
       <c r="A125" s="8">
         <v>45572.651604733794</v>
       </c>
@@ -10651,7 +10622,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="126" hidden="1">
+    <row r="126">
       <c r="A126" s="10">
         <v>45572.65176275463</v>
       </c>
@@ -10695,7 +10666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" hidden="1">
+    <row r="127">
       <c r="A127" s="8">
         <v>45572.65232376158</v>
       </c>
@@ -10751,7 +10722,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" hidden="1">
+    <row r="128">
       <c r="A128" s="10">
         <v>45572.65251049769</v>
       </c>
@@ -10804,7 +10775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" hidden="1">
+    <row r="129">
       <c r="A129" s="8">
         <v>45572.65309207176</v>
       </c>
@@ -10854,7 +10825,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="130" hidden="1">
+    <row r="130">
       <c r="A130" s="10">
         <v>45572.65489921297</v>
       </c>
@@ -10907,7 +10878,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" hidden="1">
+    <row r="131">
       <c r="A131" s="8">
         <v>45572.66262549769</v>
       </c>
@@ -10960,7 +10931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" hidden="1">
+    <row r="132">
       <c r="A132" s="10">
         <v>45572.66316711805</v>
       </c>
@@ -11013,7 +10984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" hidden="1">
+    <row r="133">
       <c r="A133" s="8">
         <v>45572.66332476852</v>
       </c>
@@ -11054,7 +11025,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="134" hidden="1">
+    <row r="134">
       <c r="A134" s="10">
         <v>45572.66426630787</v>
       </c>
@@ -11104,7 +11075,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="135" hidden="1">
+    <row r="135">
       <c r="A135" s="8">
         <v>45572.667734884264</v>
       </c>
@@ -11157,7 +11128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="136" hidden="1">
+    <row r="136">
       <c r="A136" s="10">
         <v>45572.671059768516</v>
       </c>
@@ -11207,7 +11178,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" hidden="1">
+    <row r="137">
       <c r="A137" s="8">
         <v>45572.67687630787</v>
       </c>
@@ -11257,7 +11228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" hidden="1">
+    <row r="138">
       <c r="A138" s="10">
         <v>45572.683154479164</v>
       </c>
@@ -11310,7 +11281,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" hidden="1">
+    <row r="139">
       <c r="A139" s="8">
         <v>45572.68392393518</v>
       </c>
@@ -11354,7 +11325,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="140" hidden="1">
+    <row r="140">
       <c r="A140" s="10">
         <v>45572.69123428241</v>
       </c>
@@ -11407,7 +11378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="141" hidden="1">
+    <row r="141">
       <c r="A141" s="8">
         <v>45572.698263784725</v>
       </c>
@@ -11457,7 +11428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" hidden="1">
+    <row r="142">
       <c r="A142" s="10">
         <v>45572.70117166667</v>
       </c>
@@ -11507,7 +11478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" hidden="1">
+    <row r="143">
       <c r="A143" s="8">
         <v>45572.704626226856</v>
       </c>
@@ -11557,7 +11528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" hidden="1">
+    <row r="144">
       <c r="A144" s="10">
         <v>45572.70546415509</v>
       </c>
@@ -11607,7 +11578,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" hidden="1">
+    <row r="145">
       <c r="A145" s="8">
         <v>45572.72855269676</v>
       </c>
@@ -11660,7 +11631,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" hidden="1">
+    <row r="146">
       <c r="A146" s="10">
         <v>45572.73020759259</v>
       </c>
@@ -11707,7 +11678,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="147" hidden="1">
+    <row r="147">
       <c r="A147" s="8">
         <v>45572.74920202546</v>
       </c>
@@ -11757,7 +11728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" hidden="1">
+    <row r="148">
       <c r="A148" s="10">
         <v>45572.75779069445</v>
       </c>
@@ -11807,7 +11778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" hidden="1">
+    <row r="149">
       <c r="A149" s="8">
         <v>45572.76166108796</v>
       </c>
@@ -11848,7 +11819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="150" hidden="1">
+    <row r="150">
       <c r="A150" s="10">
         <v>45572.77247217593</v>
       </c>
@@ -11904,7 +11875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" hidden="1">
+    <row r="151">
       <c r="A151" s="8">
         <v>45572.79075380787</v>
       </c>
@@ -11957,7 +11928,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="152" hidden="1">
+    <row r="152">
       <c r="A152" s="10">
         <v>45572.8064816088</v>
       </c>
@@ -12007,7 +11978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" hidden="1">
+    <row r="153">
       <c r="A153" s="8">
         <v>45572.807172175926</v>
       </c>
@@ -12051,7 +12022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="154" hidden="1">
+    <row r="154">
       <c r="A154" s="10">
         <v>45572.810023032405</v>
       </c>
@@ -12095,7 +12066,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="155" hidden="1">
+    <row r="155">
       <c r="A155" s="8">
         <v>45572.818263912035</v>
       </c>
@@ -12148,7 +12119,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" hidden="1">
+    <row r="156">
       <c r="A156" s="10">
         <v>45572.82525490741</v>
       </c>
@@ -12204,7 +12175,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="157" hidden="1">
+    <row r="157">
       <c r="A157" s="8">
         <v>45572.83216791667</v>
       </c>
@@ -12248,7 +12219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" hidden="1">
+    <row r="158">
       <c r="A158" s="10">
         <v>45572.84344109954</v>
       </c>
@@ -12286,7 +12257,7 @@
         <v>170000.0</v>
       </c>
     </row>
-    <row r="159" hidden="1">
+    <row r="159">
       <c r="A159" s="8">
         <v>45572.851512395835</v>
       </c>
@@ -12339,7 +12310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="160" hidden="1">
+    <row r="160">
       <c r="A160" s="10">
         <v>45572.859282997684</v>
       </c>
@@ -12377,7 +12348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" hidden="1">
+    <row r="161">
       <c r="A161" s="8">
         <v>45572.86347302083</v>
       </c>
@@ -12421,7 +12392,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="162" hidden="1">
+    <row r="162">
       <c r="A162" s="10">
         <v>45572.87920119213</v>
       </c>
@@ -12474,7 +12445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" hidden="1">
+    <row r="163">
       <c r="A163" s="8">
         <v>45572.8989053125</v>
       </c>
@@ -12530,7 +12501,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="164" hidden="1">
+    <row r="164">
       <c r="A164" s="10">
         <v>45572.914087638885</v>
       </c>
@@ -12574,7 +12545,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="165" hidden="1">
+    <row r="165">
       <c r="A165" s="8">
         <v>45572.93205402778</v>
       </c>
@@ -12624,7 +12595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="166" hidden="1">
+    <row r="166">
       <c r="A166" s="10">
         <v>45572.94289989583</v>
       </c>
@@ -12677,7 +12648,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="167" hidden="1">
+    <row r="167">
       <c r="A167" s="8">
         <v>45572.9435546875</v>
       </c>
@@ -12730,7 +12701,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="168" hidden="1">
+    <row r="168">
       <c r="A168" s="10">
         <v>45573.30908150463</v>
       </c>
@@ -12780,7 +12751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" hidden="1">
+    <row r="169">
       <c r="A169" s="8">
         <v>45573.34224170139</v>
       </c>
@@ -12815,7 +12786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" hidden="1">
+    <row r="170">
       <c r="A170" s="10">
         <v>45573.34243498843</v>
       </c>
@@ -12865,7 +12836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="171" hidden="1">
+    <row r="171">
       <c r="A171" s="8">
         <v>45573.356488125</v>
       </c>
@@ -12915,7 +12886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="172" hidden="1">
+    <row r="172">
       <c r="A172" s="10">
         <v>45573.358119537035</v>
       </c>
@@ -12965,7 +12936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="173" hidden="1">
+    <row r="173">
       <c r="A173" s="8">
         <v>45573.36346810185</v>
       </c>
@@ -13012,7 +12983,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="174" hidden="1">
+    <row r="174">
       <c r="A174" s="10">
         <v>45573.38664033565</v>
       </c>
@@ -13050,7 +13021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="175" hidden="1">
+    <row r="175">
       <c r="A175" s="8">
         <v>45573.40699079861</v>
       </c>
@@ -13100,7 +13071,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="176" hidden="1">
+    <row r="176">
       <c r="A176" s="10">
         <v>45573.4200828125</v>
       </c>
@@ -13153,7 +13124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" hidden="1">
+    <row r="177">
       <c r="A177" s="8">
         <v>45573.44138454861</v>
       </c>
@@ -13203,7 +13174,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="178" hidden="1">
+    <row r="178">
       <c r="A178" s="10">
         <v>45573.49167349537</v>
       </c>
@@ -13259,7 +13230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="179" hidden="1">
+    <row r="179">
       <c r="A179" s="8">
         <v>45573.49684436343</v>
       </c>
@@ -13309,7 +13280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="180" hidden="1">
+    <row r="180">
       <c r="A180" s="10">
         <v>45573.49869451389</v>
       </c>
@@ -13365,7 +13336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" hidden="1">
+    <row r="181">
       <c r="A181" s="8">
         <v>45573.500216782406</v>
       </c>
@@ -13412,7 +13383,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="182" hidden="1">
+    <row r="182">
       <c r="A182" s="10">
         <v>45573.50290568287</v>
       </c>
@@ -13468,7 +13439,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="183" hidden="1">
+    <row r="183">
       <c r="A183" s="8">
         <v>45573.50364523148</v>
       </c>
@@ -13518,7 +13489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="184" hidden="1">
+    <row r="184">
       <c r="A184" s="10">
         <v>45573.507484664355</v>
       </c>
@@ -13562,7 +13533,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" hidden="1">
+    <row r="185">
       <c r="A185" s="8">
         <v>45573.508152395836</v>
       </c>
@@ -13612,7 +13583,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="186" hidden="1">
+    <row r="186">
       <c r="A186" s="10">
         <v>45573.50885618056</v>
       </c>
@@ -13656,7 +13627,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="187" hidden="1">
+    <row r="187">
       <c r="A187" s="8">
         <v>45573.51408355324</v>
       </c>
@@ -13709,7 +13680,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="188" hidden="1">
+    <row r="188">
       <c r="A188" s="10">
         <v>45573.51571085648</v>
       </c>
@@ -13762,7 +13733,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" hidden="1">
+    <row r="189">
       <c r="A189" s="8">
         <v>45573.51675685185</v>
       </c>
@@ -13815,7 +13786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" hidden="1">
+    <row r="190">
       <c r="A190" s="10">
         <v>45573.51907635416</v>
       </c>
@@ -13865,7 +13836,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="191" hidden="1">
+    <row r="191">
       <c r="A191" s="8">
         <v>45573.522804293985</v>
       </c>
@@ -13918,7 +13889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" hidden="1">
+    <row r="192">
       <c r="A192" s="10">
         <v>45573.529077569445</v>
       </c>
@@ -13968,7 +13939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="193" hidden="1">
+    <row r="193">
       <c r="A193" s="8">
         <v>45573.53154894676</v>
       </c>
@@ -14021,7 +13992,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="194" hidden="1">
+    <row r="194">
       <c r="A194" s="10">
         <v>45573.539881874996</v>
       </c>
@@ -14074,7 +14045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="195" hidden="1">
+    <row r="195">
       <c r="A195" s="8">
         <v>45573.54046539352</v>
       </c>
@@ -14127,7 +14098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" hidden="1">
+    <row r="196">
       <c r="A196" s="10">
         <v>45573.54251604166</v>
       </c>
@@ -14168,7 +14139,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="197" hidden="1">
+    <row r="197">
       <c r="A197" s="8">
         <v>45573.545803263885</v>
       </c>
@@ -14218,7 +14189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" hidden="1">
+    <row r="198">
       <c r="A198" s="10">
         <v>45573.54675540509</v>
       </c>
@@ -14271,7 +14242,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" hidden="1">
+    <row r="199">
       <c r="A199" s="8">
         <v>45573.55478846065</v>
       </c>
@@ -14327,7 +14298,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="200" hidden="1">
+    <row r="200">
       <c r="A200" s="10">
         <v>45573.61181592593</v>
       </c>
@@ -14380,7 +14351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="201" hidden="1">
+    <row r="201">
       <c r="A201" s="8">
         <v>45573.629402673614</v>
       </c>
@@ -14436,7 +14407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="202" hidden="1">
+    <row r="202">
       <c r="A202" s="10">
         <v>45573.62976148148</v>
       </c>
@@ -14483,7 +14454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" hidden="1">
+    <row r="203">
       <c r="A203" s="8">
         <v>45573.63655361111</v>
       </c>
@@ -14533,7 +14504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" hidden="1">
+    <row r="204">
       <c r="A204" s="10">
         <v>45573.63982203703</v>
       </c>
@@ -14586,7 +14557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="205" hidden="1">
+    <row r="205">
       <c r="A205" s="8">
         <v>45573.64822791667</v>
       </c>
@@ -14633,7 +14604,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="206" hidden="1">
+    <row r="206">
       <c r="A206" s="10">
         <v>45573.68698945602</v>
       </c>
@@ -14689,7 +14660,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="207" hidden="1">
+    <row r="207">
       <c r="A207" s="8">
         <v>45573.70724230324</v>
       </c>
@@ -14736,7 +14707,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="208" hidden="1">
+    <row r="208">
       <c r="A208" s="10">
         <v>45573.76297214121</v>
       </c>
@@ -14780,7 +14751,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="209" hidden="1">
+    <row r="209">
       <c r="A209" s="8">
         <v>45573.763603900465</v>
       </c>
@@ -14830,7 +14801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" hidden="1">
+    <row r="210">
       <c r="A210" s="10">
         <v>45573.78708930555</v>
       </c>
@@ -14883,7 +14854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" hidden="1">
+    <row r="211">
       <c r="A211" s="8">
         <v>45573.85904445602</v>
       </c>
@@ -14933,7 +14904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" hidden="1">
+    <row r="212">
       <c r="A212" s="10">
         <v>45573.907286319445</v>
       </c>
@@ -14986,7 +14957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="213" hidden="1">
+    <row r="213">
       <c r="A213" s="8">
         <v>45573.91920658565</v>
       </c>
@@ -15030,7 +15001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="214" hidden="1">
+    <row r="214">
       <c r="A214" s="10">
         <v>45573.91957150463</v>
       </c>
@@ -15080,7 +15051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="215" hidden="1">
+    <row r="215">
       <c r="A215" s="8">
         <v>45573.971140625</v>
       </c>
@@ -15121,7 +15092,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="216" hidden="1">
+    <row r="216">
       <c r="A216" s="10">
         <v>45573.99092971065</v>
       </c>
@@ -15174,7 +15145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="217" hidden="1">
+    <row r="217">
       <c r="A217" s="8">
         <v>45574.26270633102</v>
       </c>
@@ -15212,7 +15183,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="218" hidden="1">
+    <row r="218">
       <c r="A218" s="10">
         <v>45574.3789196875</v>
       </c>
@@ -15262,7 +15233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="219" hidden="1">
+    <row r="219">
       <c r="A219" s="8">
         <v>45574.44177668981</v>
       </c>
@@ -15309,7 +15280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="220" hidden="1">
+    <row r="220">
       <c r="A220" s="10">
         <v>45574.44984212963</v>
       </c>
@@ -15362,7 +15333,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="221" hidden="1">
+    <row r="221">
       <c r="A221" s="8">
         <v>45574.47174197917</v>
       </c>
@@ -15406,7 +15377,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="222" hidden="1">
+    <row r="222">
       <c r="A222" s="10">
         <v>45574.49505189815</v>
       </c>
@@ -15450,7 +15421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="223" hidden="1">
+    <row r="223">
       <c r="A223" s="8">
         <v>45574.57034045139</v>
       </c>
@@ -15500,7 +15471,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="224" hidden="1">
+    <row r="224">
       <c r="A224" s="10">
         <v>45574.60978961806</v>
       </c>
@@ -15544,7 +15515,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="225" hidden="1">
+    <row r="225">
       <c r="A225" s="8">
         <v>45574.63720146991</v>
       </c>
@@ -15597,7 +15568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" hidden="1">
+    <row r="226">
       <c r="A226" s="10">
         <v>45574.64209327546</v>
       </c>
@@ -15653,7 +15624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="227" hidden="1">
+    <row r="227">
       <c r="A227" s="8">
         <v>45574.64927976852</v>
       </c>
@@ -15703,7 +15674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="228" hidden="1">
+    <row r="228">
       <c r="A228" s="10">
         <v>45574.8365802662</v>
       </c>
@@ -15747,7 +15718,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="229" hidden="1">
+    <row r="229">
       <c r="A229" s="8">
         <v>45574.837985474536</v>
       </c>
@@ -15803,7 +15774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="230" hidden="1">
+    <row r="230">
       <c r="A230" s="10">
         <v>45574.841472569446</v>
       </c>
@@ -15853,7 +15824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" hidden="1">
+    <row r="231">
       <c r="A231" s="8">
         <v>45574.844974837964</v>
       </c>
@@ -15903,7 +15874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="232" hidden="1">
+    <row r="232">
       <c r="A232" s="10">
         <v>45574.84790680556</v>
       </c>
@@ -15956,7 +15927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="233" hidden="1">
+    <row r="233">
       <c r="A233" s="8">
         <v>45574.850306886576</v>
       </c>
@@ -16000,7 +15971,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="234" hidden="1">
+    <row r="234">
       <c r="A234" s="10">
         <v>45574.86655115741</v>
       </c>
@@ -16053,7 +16024,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="235" hidden="1">
+    <row r="235">
       <c r="A235" s="8">
         <v>45574.93303572916</v>
       </c>
@@ -16103,7 +16074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="236" hidden="1">
+    <row r="236">
       <c r="A236" s="10">
         <v>45575.01566430555</v>
       </c>
@@ -16153,7 +16124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="237" hidden="1">
+    <row r="237">
       <c r="A237" s="8">
         <v>45575.02098173611</v>
       </c>
@@ -16209,7 +16180,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="238" hidden="1">
+    <row r="238">
       <c r="A238" s="10">
         <v>45575.30801791667</v>
       </c>
@@ -16259,7 +16230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="239" hidden="1">
+    <row r="239">
       <c r="A239" s="8">
         <v>45575.33832570602</v>
       </c>
@@ -16309,7 +16280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="240" hidden="1">
+    <row r="240">
       <c r="A240" s="10">
         <v>45575.33948864583</v>
       </c>
@@ -16353,7 +16324,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="241" hidden="1">
+    <row r="241">
       <c r="A241" s="8">
         <v>45575.34070934028</v>
       </c>
@@ -16406,7 +16377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="242" hidden="1">
+    <row r="242">
       <c r="A242" s="10">
         <v>45575.37153638889</v>
       </c>
@@ -16459,7 +16430,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" hidden="1">
+    <row r="243">
       <c r="A243" s="8">
         <v>45575.3775966088</v>
       </c>
@@ -16500,7 +16471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="244" hidden="1">
+    <row r="244">
       <c r="A244" s="10">
         <v>45575.42630791667</v>
       </c>
@@ -16556,7 +16527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="245" hidden="1">
+    <row r="245">
       <c r="A245" s="8">
         <v>45575.469285740735</v>
       </c>
@@ -16600,7 +16571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="246" hidden="1">
+    <row r="246">
       <c r="A246" s="10">
         <v>45575.484141249995</v>
       </c>
@@ -16653,7 +16624,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="247" hidden="1">
+    <row r="247">
       <c r="A247" s="8">
         <v>45575.485172615736</v>
       </c>
@@ -16703,7 +16674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="248" hidden="1">
+    <row r="248">
       <c r="A248" s="10">
         <v>45575.49612390046</v>
       </c>
@@ -16756,7 +16727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="249" hidden="1">
+    <row r="249">
       <c r="A249" s="8">
         <v>45575.50064108796</v>
       </c>
@@ -16800,7 +16771,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="250" hidden="1">
+    <row r="250">
       <c r="A250" s="10">
         <v>45575.57132743056</v>
       </c>
@@ -16850,7 +16821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="251" hidden="1">
+    <row r="251">
       <c r="A251" s="8">
         <v>45575.63554894676</v>
       </c>
@@ -16900,7 +16871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="252" hidden="1">
+    <row r="252">
       <c r="A252" s="10">
         <v>45575.69053180555</v>
       </c>
@@ -16953,7 +16924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="253" hidden="1">
+    <row r="253">
       <c r="A253" s="8">
         <v>45575.85134386574</v>
       </c>
@@ -17003,7 +16974,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="254" hidden="1">
+    <row r="254">
       <c r="A254" s="10">
         <v>45575.88652157407</v>
       </c>
@@ -17059,7 +17030,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="255" hidden="1">
+    <row r="255">
       <c r="A255" s="8">
         <v>45575.90676587963</v>
       </c>
@@ -17103,7 +17074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="256" hidden="1">
+    <row r="256">
       <c r="A256" s="10">
         <v>45575.90917503472</v>
       </c>
@@ -17153,7 +17124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="257" hidden="1">
+    <row r="257">
       <c r="A257" s="8">
         <v>45576.01995215278</v>
       </c>
@@ -17200,7 +17171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="258" hidden="1">
+    <row r="258">
       <c r="A258" s="10">
         <v>45576.4981083912</v>
       </c>
@@ -17241,7 +17212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="259" hidden="1">
+    <row r="259">
       <c r="A259" s="8">
         <v>45576.51827729167</v>
       </c>
@@ -17282,7 +17253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="260" hidden="1">
+    <row r="260">
       <c r="A260" s="10">
         <v>45576.52038136574</v>
       </c>
@@ -17329,7 +17300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" hidden="1">
+    <row r="261">
       <c r="A261" s="8">
         <v>45576.520400821755</v>
       </c>
@@ -17379,7 +17350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="262" hidden="1">
+    <row r="262">
       <c r="A262" s="10">
         <v>45576.520919456016</v>
       </c>
@@ -17429,7 +17400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="263" hidden="1">
+    <row r="263">
       <c r="A263" s="8">
         <v>45576.52101769676</v>
       </c>
@@ -17473,7 +17444,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="264" hidden="1">
+    <row r="264">
       <c r="A264" s="10">
         <v>45576.521348842594</v>
       </c>
@@ -17523,7 +17494,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" hidden="1">
+    <row r="265">
       <c r="A265" s="8">
         <v>45576.521587083334</v>
       </c>
@@ -17561,7 +17532,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="266" hidden="1">
+    <row r="266">
       <c r="A266" s="10">
         <v>45576.52169553241</v>
       </c>
@@ -17602,7 +17573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="267" hidden="1">
+    <row r="267">
       <c r="A267" s="8">
         <v>45576.521773796296</v>
       </c>
@@ -17646,7 +17617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="268" hidden="1">
+    <row r="268">
       <c r="A268" s="10">
         <v>45576.52190141204</v>
       </c>
@@ -17690,7 +17661,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="269" hidden="1">
+    <row r="269">
       <c r="A269" s="8">
         <v>45576.52213184028</v>
       </c>
@@ -17740,7 +17711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="270" hidden="1">
+    <row r="270">
       <c r="A270" s="10">
         <v>45576.52225829861</v>
       </c>
@@ -17790,7 +17761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="271" hidden="1">
+    <row r="271">
       <c r="A271" s="8">
         <v>45576.522316863426</v>
       </c>
@@ -17831,7 +17802,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="272" hidden="1">
+    <row r="272">
       <c r="A272" s="10">
         <v>45576.52262091435</v>
       </c>
@@ -17881,7 +17852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="273" hidden="1">
+    <row r="273">
       <c r="A273" s="8">
         <v>45576.52271188657</v>
       </c>
@@ -17931,7 +17902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="274" hidden="1">
+    <row r="274">
       <c r="A274" s="10">
         <v>45576.52273237269</v>
       </c>
@@ -17981,7 +17952,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="275" hidden="1">
+    <row r="275">
       <c r="A275" s="8">
         <v>45576.52282799769</v>
       </c>
@@ -18031,7 +18002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="276" hidden="1">
+    <row r="276">
       <c r="A276" s="10">
         <v>45576.52294123842</v>
       </c>
@@ -18081,7 +18052,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="277" hidden="1">
+    <row r="277">
       <c r="A277" s="8">
         <v>45576.52309428241</v>
       </c>
@@ -18128,7 +18099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="278" hidden="1">
+    <row r="278">
       <c r="A278" s="10">
         <v>45576.523310150464</v>
       </c>
@@ -18175,7 +18146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="279" hidden="1">
+    <row r="279">
       <c r="A279" s="8">
         <v>45576.523441122685</v>
       </c>
@@ -18225,7 +18196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="280" hidden="1">
+    <row r="280">
       <c r="A280" s="10">
         <v>45576.523456678246</v>
       </c>
@@ -18278,7 +18249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="281" hidden="1">
+    <row r="281">
       <c r="A281" s="8">
         <v>45576.52346884259</v>
       </c>
@@ -18322,7 +18293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="282" hidden="1">
+    <row r="282">
       <c r="A282" s="10">
         <v>45576.52349178241</v>
       </c>
@@ -18375,7 +18346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="283" hidden="1">
+    <row r="283">
       <c r="A283" s="8">
         <v>45576.523554768515</v>
       </c>
@@ -18425,7 +18396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="284" hidden="1">
+    <row r="284">
       <c r="A284" s="10">
         <v>45576.523562256945</v>
       </c>
@@ -18481,7 +18452,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="285" hidden="1">
+    <row r="285">
       <c r="A285" s="8">
         <v>45576.52372012731</v>
       </c>
@@ -18540,7 +18511,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="286" hidden="1">
+    <row r="286">
       <c r="A286" s="10">
         <v>45576.523725266205</v>
       </c>
@@ -18581,7 +18552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" hidden="1">
+    <row r="287">
       <c r="A287" s="8">
         <v>45576.524123738425</v>
       </c>
@@ -18634,7 +18605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" hidden="1">
+    <row r="288">
       <c r="A288" s="10">
         <v>45576.524338738425</v>
       </c>
@@ -18684,7 +18655,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="289" hidden="1">
+    <row r="289">
       <c r="A289" s="8">
         <v>45576.52505571759</v>
       </c>
@@ -18731,7 +18702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" hidden="1">
+    <row r="290">
       <c r="A290" s="10">
         <v>45576.525190844906</v>
       </c>
@@ -18775,7 +18746,7 @@
         <v>55000.0</v>
       </c>
     </row>
-    <row r="291" hidden="1">
+    <row r="291">
       <c r="A291" s="8">
         <v>45576.52527662037</v>
       </c>
@@ -18825,7 +18796,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="292" hidden="1">
+    <row r="292">
       <c r="A292" s="10">
         <v>45576.52540578703</v>
       </c>
@@ -18875,7 +18846,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="293" hidden="1">
+    <row r="293">
       <c r="A293" s="8">
         <v>45576.52541560185</v>
       </c>
@@ -18928,7 +18899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="294" hidden="1">
+    <row r="294">
       <c r="A294" s="10">
         <v>45576.52572924769</v>
       </c>
@@ -18978,7 +18949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="295" hidden="1">
+    <row r="295">
       <c r="A295" s="8">
         <v>45576.52604537037</v>
       </c>
@@ -19028,7 +18999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="296" hidden="1">
+    <row r="296">
       <c r="A296" s="10">
         <v>45576.52681101851</v>
       </c>
@@ -19069,7 +19040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="297" hidden="1">
+    <row r="297">
       <c r="A297" s="8">
         <v>45576.52720886574</v>
       </c>
@@ -19119,7 +19090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" hidden="1">
+    <row r="298">
       <c r="A298" s="10">
         <v>45576.52734630787</v>
       </c>
@@ -19231,7 +19202,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="300" hidden="1">
+    <row r="300">
       <c r="A300" s="10">
         <v>45576.52768746528</v>
       </c>
@@ -19281,7 +19252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="301" hidden="1">
+    <row r="301">
       <c r="A301" s="8">
         <v>45576.52782863426</v>
       </c>
@@ -19325,7 +19296,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="302" hidden="1">
+    <row r="302">
       <c r="A302" s="10">
         <v>45576.52792033565</v>
       </c>
@@ -19375,7 +19346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="303" hidden="1">
+    <row r="303">
       <c r="A303" s="8">
         <v>45576.528046956024</v>
       </c>
@@ -19419,7 +19390,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="304" hidden="1">
+    <row r="304">
       <c r="A304" s="10">
         <v>45576.5284234375</v>
       </c>
@@ -19472,7 +19443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="305" hidden="1">
+    <row r="305">
       <c r="A305" s="8">
         <v>45576.52848767361</v>
       </c>
@@ -19525,7 +19496,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="306" hidden="1">
+    <row r="306">
       <c r="A306" s="10">
         <v>45576.52899472222</v>
       </c>
@@ -19578,7 +19549,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="307" hidden="1">
+    <row r="307">
       <c r="A307" s="8">
         <v>45576.52901107639</v>
       </c>
@@ -19628,7 +19599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="308" hidden="1">
+    <row r="308">
       <c r="A308" s="10">
         <v>45576.52970472223</v>
       </c>
@@ -19663,7 +19634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="309" hidden="1">
+    <row r="309">
       <c r="A309" s="8">
         <v>45576.529886226854</v>
       </c>
@@ -19716,7 +19687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="310" hidden="1">
+    <row r="310">
       <c r="A310" s="10">
         <v>45576.52997363426</v>
       </c>
@@ -19769,7 +19740,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="311" hidden="1">
+    <row r="311">
       <c r="A311" s="8">
         <v>45576.53003337963</v>
       </c>
@@ -19822,7 +19793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="312" hidden="1">
+    <row r="312">
       <c r="A312" s="10">
         <v>45576.53051401621</v>
       </c>
@@ -19878,7 +19849,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="313" hidden="1">
+    <row r="313">
       <c r="A313" s="8">
         <v>45576.53064615741</v>
       </c>
@@ -19928,7 +19899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="314" hidden="1">
+    <row r="314">
       <c r="A314" s="10">
         <v>45576.5311263426</v>
       </c>
@@ -19978,7 +19949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="315" hidden="1">
+    <row r="315">
       <c r="A315" s="8">
         <v>45576.53146702546</v>
       </c>
@@ -20022,7 +19993,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="316" hidden="1">
+    <row r="316">
       <c r="A316" s="10">
         <v>45576.53205553241</v>
       </c>
@@ -20057,7 +20028,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="317" hidden="1">
+    <row r="317">
       <c r="A317" s="8">
         <v>45576.53225497685</v>
       </c>
@@ -20104,7 +20075,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="318" hidden="1">
+    <row r="318">
       <c r="A318" s="10">
         <v>45576.53238982639</v>
       </c>
@@ -20154,7 +20125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="319" hidden="1">
+    <row r="319">
       <c r="A319" s="8">
         <v>45576.5326877662</v>
       </c>
@@ -20207,7 +20178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="320" hidden="1">
+    <row r="320">
       <c r="A320" s="10">
         <v>45576.532688391206</v>
       </c>
@@ -20260,7 +20231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="321" hidden="1">
+    <row r="321">
       <c r="A321" s="8">
         <v>45576.53285878472</v>
       </c>
@@ -20307,7 +20278,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="322" hidden="1">
+    <row r="322">
       <c r="A322" s="10">
         <v>45576.53292513889</v>
       </c>
@@ -20354,7 +20325,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="323" hidden="1">
+    <row r="323">
       <c r="A323" s="8">
         <v>45576.53345681713</v>
       </c>
@@ -20398,7 +20369,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="324" hidden="1">
+    <row r="324">
       <c r="A324" s="10">
         <v>45576.53384138889</v>
       </c>
@@ -20448,7 +20419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="325" hidden="1">
+    <row r="325">
       <c r="A325" s="8">
         <v>45576.53390052084</v>
       </c>
@@ -20498,7 +20469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="326" hidden="1">
+    <row r="326">
       <c r="A326" s="10">
         <v>45576.534034780096</v>
       </c>
@@ -20545,7 +20516,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="327" hidden="1">
+    <row r="327">
       <c r="A327" s="8">
         <v>45576.53483965278</v>
       </c>
@@ -20595,7 +20566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="328" hidden="1">
+    <row r="328">
       <c r="A328" s="10">
         <v>45576.53554769676</v>
       </c>
@@ -20648,7 +20619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="329" hidden="1">
+    <row r="329">
       <c r="A329" s="8">
         <v>45576.5355540625</v>
       </c>
@@ -20701,7 +20672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="330" hidden="1">
+    <row r="330">
       <c r="A330" s="10">
         <v>45576.535597118054</v>
       </c>
@@ -20751,7 +20722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="331" hidden="1">
+    <row r="331">
       <c r="A331" s="8">
         <v>45576.535627916666</v>
       </c>
@@ -20804,7 +20775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="332" hidden="1">
+    <row r="332">
       <c r="A332" s="10">
         <v>45576.53588512732</v>
       </c>
@@ -20851,7 +20822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="333" hidden="1">
+    <row r="333">
       <c r="A333" s="8">
         <v>45576.53623194444</v>
       </c>
@@ -20895,7 +20866,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="334" hidden="1">
+    <row r="334">
       <c r="A334" s="10">
         <v>45576.536810509264</v>
       </c>
@@ -20945,7 +20916,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="335" hidden="1">
+    <row r="335">
       <c r="A335" s="8">
         <v>45576.53687081019</v>
       </c>
@@ -20992,7 +20963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" hidden="1">
+    <row r="336">
       <c r="A336" s="10">
         <v>45576.537189166665</v>
       </c>
@@ -21051,7 +21022,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="337" hidden="1">
+    <row r="337">
       <c r="A337" s="8">
         <v>45576.53725662037</v>
       </c>
@@ -21104,7 +21075,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="338" hidden="1">
+    <row r="338">
       <c r="A338" s="10">
         <v>45576.53842064815</v>
       </c>
@@ -21154,7 +21125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="339" hidden="1">
+    <row r="339">
       <c r="A339" s="8">
         <v>45576.53847488426</v>
       </c>
@@ -21210,7 +21181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="340" hidden="1">
+    <row r="340">
       <c r="A340" s="10">
         <v>45576.53860003472</v>
       </c>
@@ -21260,7 +21231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="341" hidden="1">
+    <row r="341">
       <c r="A341" s="8">
         <v>45576.53869327546</v>
       </c>
@@ -21304,7 +21275,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="342" hidden="1">
+    <row r="342">
       <c r="A342" s="10">
         <v>45576.53911945602</v>
       </c>
@@ -21345,7 +21316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="343" hidden="1">
+    <row r="343">
       <c r="A343" s="8">
         <v>45576.53951300926</v>
       </c>
@@ -21398,7 +21369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="344" hidden="1">
+    <row r="344">
       <c r="A344" s="10">
         <v>45576.53985519676</v>
       </c>
@@ -21448,7 +21419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="345" hidden="1">
+    <row r="345">
       <c r="A345" s="8">
         <v>45576.54045223379</v>
       </c>
@@ -21495,7 +21466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" hidden="1">
+    <row r="346">
       <c r="A346" s="10">
         <v>45576.54086155092</v>
       </c>
@@ -21548,7 +21519,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="347" hidden="1">
+    <row r="347">
       <c r="A347" s="8">
         <v>45576.54099995371</v>
       </c>
@@ -21601,7 +21572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" hidden="1">
+    <row r="348">
       <c r="A348" s="10">
         <v>45576.54116621528</v>
       </c>
@@ -21648,7 +21619,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="349" hidden="1">
+    <row r="349">
       <c r="A349" s="8">
         <v>45576.54208457176</v>
       </c>
@@ -21695,7 +21666,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="350" hidden="1">
+    <row r="350">
       <c r="A350" s="10">
         <v>45576.54246758102</v>
       </c>
@@ -21745,7 +21716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="351" hidden="1">
+    <row r="351">
       <c r="A351" s="8">
         <v>45576.542651655094</v>
       </c>
@@ -21798,7 +21769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="352" hidden="1">
+    <row r="352">
       <c r="A352" s="10">
         <v>45576.54327547454</v>
       </c>
@@ -21845,7 +21816,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="353" hidden="1">
+    <row r="353">
       <c r="A353" s="8">
         <v>45576.54386667824</v>
       </c>
@@ -21895,7 +21866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="354" hidden="1">
+    <row r="354">
       <c r="A354" s="10">
         <v>45576.544101747684</v>
       </c>
@@ -21954,7 +21925,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="355" hidden="1">
+    <row r="355">
       <c r="A355" s="8">
         <v>45576.54442266204</v>
       </c>
@@ -22004,7 +21975,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="356" hidden="1">
+    <row r="356">
       <c r="A356" s="10">
         <v>45576.54472351852</v>
       </c>
@@ -22057,7 +22028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="357" hidden="1">
+    <row r="357">
       <c r="A357" s="8">
         <v>45576.5450591088</v>
       </c>
@@ -22107,7 +22078,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" hidden="1">
+    <row r="358">
       <c r="A358" s="10">
         <v>45576.5458696412</v>
       </c>
@@ -22157,7 +22128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="359" hidden="1">
+    <row r="359">
       <c r="A359" s="8">
         <v>45576.54748224537</v>
       </c>
@@ -22198,7 +22169,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="360" hidden="1">
+    <row r="360">
       <c r="A360" s="10">
         <v>45576.54763386574</v>
       </c>
@@ -22251,7 +22222,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="361" hidden="1">
+    <row r="361">
       <c r="A361" s="8">
         <v>45576.548347337965</v>
       </c>
@@ -22301,7 +22272,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="362" hidden="1">
+    <row r="362">
       <c r="A362" s="10">
         <v>45576.54889085648</v>
       </c>
@@ -22348,7 +22319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="363" hidden="1">
+    <row r="363">
       <c r="A363" s="8">
         <v>45576.54914069445</v>
       </c>
@@ -22401,7 +22372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" hidden="1">
+    <row r="364">
       <c r="A364" s="10">
         <v>45576.54946446759</v>
       </c>
@@ -22451,7 +22422,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="365" hidden="1">
+    <row r="365">
       <c r="A365" s="8">
         <v>45576.549599502316</v>
       </c>
@@ -22504,7 +22475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="366" hidden="1">
+    <row r="366">
       <c r="A366" s="10">
         <v>45576.54992900463</v>
       </c>
@@ -22560,7 +22531,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="367" hidden="1">
+    <row r="367">
       <c r="A367" s="8">
         <v>45576.54998303241</v>
       </c>
@@ -22613,7 +22584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="368" hidden="1">
+    <row r="368">
       <c r="A368" s="10">
         <v>45576.550362141206</v>
       </c>
@@ -22669,7 +22640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="369" hidden="1">
+    <row r="369">
       <c r="A369" s="8">
         <v>45576.55073761574</v>
       </c>
@@ -22719,7 +22690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="370" hidden="1">
+    <row r="370">
       <c r="A370" s="10">
         <v>45576.55180331018</v>
       </c>
@@ -22772,7 +22743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="371" hidden="1">
+    <row r="371">
       <c r="A371" s="8">
         <v>45576.55311146991</v>
       </c>
@@ -22822,7 +22793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="372" hidden="1">
+    <row r="372">
       <c r="A372" s="10">
         <v>45576.55375365741</v>
       </c>
@@ -22872,7 +22843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="373" hidden="1">
+    <row r="373">
       <c r="A373" s="8">
         <v>45576.55557953704</v>
       </c>
@@ -22919,7 +22890,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="374" hidden="1">
+    <row r="374">
       <c r="A374" s="10">
         <v>45576.55572143519</v>
       </c>
@@ -22972,7 +22943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="375" hidden="1">
+    <row r="375">
       <c r="A375" s="8">
         <v>45576.55611621527</v>
       </c>
@@ -23025,7 +22996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="376" hidden="1">
+    <row r="376">
       <c r="A376" s="10">
         <v>45576.55672039352</v>
       </c>
@@ -23078,7 +23049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="377" hidden="1">
+    <row r="377">
       <c r="A377" s="8">
         <v>45576.55672826389</v>
       </c>
@@ -23122,7 +23093,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="378" hidden="1">
+    <row r="378">
       <c r="A378" s="10">
         <v>45576.557165833336</v>
       </c>
@@ -23175,7 +23146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="379" hidden="1">
+    <row r="379">
       <c r="A379" s="8">
         <v>45576.5583522338</v>
       </c>
@@ -23225,7 +23196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="380" hidden="1">
+    <row r="380">
       <c r="A380" s="10">
         <v>45576.55903013889</v>
       </c>
@@ -23269,7 +23240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="381" hidden="1">
+    <row r="381">
       <c r="A381" s="8">
         <v>45576.56010630787</v>
       </c>
@@ -23319,7 +23290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" hidden="1">
+    <row r="382">
       <c r="A382" s="10">
         <v>45576.56116699074</v>
       </c>
@@ -23369,7 +23340,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="383" hidden="1">
+    <row r="383">
       <c r="A383" s="8">
         <v>45576.561387118054</v>
       </c>
@@ -23407,7 +23378,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="384" hidden="1">
+    <row r="384">
       <c r="A384" s="10">
         <v>45576.561427962966</v>
       </c>
@@ -23451,7 +23422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="385" hidden="1">
+    <row r="385">
       <c r="A385" s="8">
         <v>45576.56268696759</v>
       </c>
@@ -23501,7 +23472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="386" hidden="1">
+    <row r="386">
       <c r="A386" s="10">
         <v>45576.56315939815</v>
       </c>
@@ -23554,7 +23525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="387" hidden="1">
+    <row r="387">
       <c r="A387" s="8">
         <v>45576.56352922454</v>
       </c>
@@ -23604,7 +23575,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="388" hidden="1">
+    <row r="388">
       <c r="A388" s="10">
         <v>45576.564035868054</v>
       </c>
@@ -23648,7 +23619,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="389" hidden="1">
+    <row r="389">
       <c r="A389" s="8">
         <v>45576.5650372338</v>
       </c>
@@ -23704,7 +23675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="390" hidden="1">
+    <row r="390">
       <c r="A390" s="10">
         <v>45576.56798096065</v>
       </c>
@@ -23754,7 +23725,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="391" hidden="1">
+    <row r="391">
       <c r="A391" s="8">
         <v>45576.568084756946</v>
       </c>
@@ -23807,7 +23778,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="392" hidden="1">
+    <row r="392">
       <c r="A392" s="10">
         <v>45576.56883443287</v>
       </c>
@@ -23857,7 +23828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="393" hidden="1">
+    <row r="393">
       <c r="A393" s="8">
         <v>45576.56978578704</v>
       </c>
@@ -23910,7 +23881,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="394" hidden="1">
+    <row r="394">
       <c r="A394" s="10">
         <v>45576.56980479167</v>
       </c>
@@ -23963,7 +23934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="395" hidden="1">
+    <row r="395">
       <c r="A395" s="8">
         <v>45576.57043928241</v>
       </c>
@@ -24013,7 +23984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="396" hidden="1">
+    <row r="396">
       <c r="A396" s="10">
         <v>45576.571306516205</v>
       </c>
@@ -24066,7 +24037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="397" hidden="1">
+    <row r="397">
       <c r="A397" s="8">
         <v>45576.57935827546</v>
       </c>
@@ -24116,7 +24087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="398" hidden="1">
+    <row r="398">
       <c r="A398" s="10">
         <v>45576.58151372685</v>
       </c>
@@ -24166,7 +24137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="399" hidden="1">
+    <row r="399">
       <c r="A399" s="8">
         <v>45576.581913125</v>
       </c>
@@ -24219,7 +24190,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="400" hidden="1">
+    <row r="400">
       <c r="A400" s="10">
         <v>45576.582146493056</v>
       </c>
@@ -24260,7 +24231,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="401" hidden="1">
+    <row r="401">
       <c r="A401" s="8">
         <v>45576.58381136574</v>
       </c>
@@ -24310,7 +24281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="402" hidden="1">
+    <row r="402">
       <c r="A402" s="10">
         <v>45576.58638920139</v>
       </c>
@@ -24366,7 +24337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="403" hidden="1">
+    <row r="403">
       <c r="A403" s="8">
         <v>45576.58741168982</v>
       </c>
@@ -24416,7 +24387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="404" hidden="1">
+    <row r="404">
       <c r="A404" s="10">
         <v>45576.58917435185</v>
       </c>
@@ -24466,7 +24437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="405" hidden="1">
+    <row r="405">
       <c r="A405" s="8">
         <v>45576.590970324076</v>
       </c>
@@ -24522,7 +24493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="406" hidden="1">
+    <row r="406">
       <c r="A406" s="10">
         <v>45576.5952075463</v>
       </c>
@@ -24572,7 +24543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="407" hidden="1">
+    <row r="407">
       <c r="A407" s="8">
         <v>45576.5955696875</v>
       </c>
@@ -24622,7 +24593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="408" hidden="1">
+    <row r="408">
       <c r="A408" s="10">
         <v>45576.59575503472</v>
       </c>
@@ -24672,7 +24643,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="409" hidden="1">
+    <row r="409">
       <c r="A409" s="8">
         <v>45576.59804326389</v>
       </c>
@@ -24722,7 +24693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="410" hidden="1">
+    <row r="410">
       <c r="A410" s="10">
         <v>45576.598660613425</v>
       </c>
@@ -24775,7 +24746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="411" hidden="1">
+    <row r="411">
       <c r="A411" s="8">
         <v>45576.60011917824</v>
       </c>
@@ -24825,7 +24796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="412" hidden="1">
+    <row r="412">
       <c r="A412" s="10">
         <v>45576.60154747685</v>
       </c>
@@ -24878,7 +24849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="413" hidden="1">
+    <row r="413">
       <c r="A413" s="8">
         <v>45576.60310143519</v>
       </c>
@@ -24931,7 +24902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="414" hidden="1">
+    <row r="414">
       <c r="A414" s="10">
         <v>45576.60380226852</v>
       </c>
@@ -24987,7 +24958,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="415" hidden="1">
+    <row r="415">
       <c r="A415" s="8">
         <v>45576.60689045139</v>
       </c>
@@ -25028,7 +24999,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="416" hidden="1">
+    <row r="416">
       <c r="A416" s="10">
         <v>45576.60752479167</v>
       </c>
@@ -25078,7 +25049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="417" hidden="1">
+    <row r="417">
       <c r="A417" s="8">
         <v>45576.60768059028</v>
       </c>
@@ -25131,7 +25102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="418" hidden="1">
+    <row r="418">
       <c r="A418" s="10">
         <v>45576.61317521991</v>
       </c>
@@ -25184,7 +25155,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="419" hidden="1">
+    <row r="419">
       <c r="A419" s="8">
         <v>45576.614349062496</v>
       </c>
@@ -25240,7 +25211,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="420" hidden="1">
+    <row r="420">
       <c r="A420" s="10">
         <v>45576.61515174768</v>
       </c>
@@ -25281,7 +25252,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="421" hidden="1">
+    <row r="421">
       <c r="A421" s="8">
         <v>45576.61543640046</v>
       </c>
@@ -25328,7 +25299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="422" hidden="1">
+    <row r="422">
       <c r="A422" s="10">
         <v>45576.61728185185</v>
       </c>
@@ -25372,7 +25343,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="423" hidden="1">
+    <row r="423">
       <c r="A423" s="8">
         <v>45576.61844984954</v>
       </c>
@@ -25422,7 +25393,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="424" hidden="1">
+    <row r="424">
       <c r="A424" s="10">
         <v>45576.624040787035</v>
       </c>
@@ -25472,7 +25443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="425" hidden="1">
+    <row r="425">
       <c r="A425" s="8">
         <v>45576.62519061343</v>
       </c>
@@ -25525,7 +25496,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="426" hidden="1">
+    <row r="426">
       <c r="A426" s="10">
         <v>45576.6258824074</v>
       </c>
@@ -25575,7 +25546,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="427" hidden="1">
+    <row r="427">
       <c r="A427" s="8">
         <v>45576.629270000005</v>
       </c>
@@ -25631,7 +25602,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="428" hidden="1">
+    <row r="428">
       <c r="A428" s="10">
         <v>45576.633072638884</v>
       </c>
@@ -25681,7 +25652,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="429" hidden="1">
+    <row r="429">
       <c r="A429" s="8">
         <v>45576.63917855324</v>
       </c>
@@ -25731,7 +25702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="430" hidden="1">
+    <row r="430">
       <c r="A430" s="10">
         <v>45576.64161653935</v>
       </c>
@@ -25778,7 +25749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="431" hidden="1">
+    <row r="431">
       <c r="A431" s="8">
         <v>45576.64182208333</v>
       </c>
@@ -25828,7 +25799,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="432" hidden="1">
+    <row r="432">
       <c r="A432" s="10">
         <v>45576.644686886575</v>
       </c>
@@ -25878,7 +25849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="433" hidden="1">
+    <row r="433">
       <c r="A433" s="8">
         <v>45576.654153877316</v>
       </c>
@@ -25925,7 +25896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="434" hidden="1">
+    <row r="434">
       <c r="A434" s="10">
         <v>45576.655190474536</v>
       </c>
@@ -25960,7 +25931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="435" hidden="1">
+    <row r="435">
       <c r="A435" s="8">
         <v>45576.65740287037</v>
       </c>
@@ -26013,7 +25984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="436" hidden="1">
+    <row r="436">
       <c r="A436" s="10">
         <v>45576.65840230324</v>
       </c>
@@ -26057,7 +26028,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="437" hidden="1">
+    <row r="437">
       <c r="A437" s="8">
         <v>45576.6585850463</v>
       </c>
@@ -26107,7 +26078,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="438" hidden="1">
+    <row r="438">
       <c r="A438" s="10">
         <v>45576.66912839121</v>
       </c>
@@ -26157,7 +26128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="439" hidden="1">
+    <row r="439">
       <c r="A439" s="8">
         <v>45576.67354767361</v>
       </c>
@@ -26204,7 +26175,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="440" hidden="1">
+    <row r="440">
       <c r="A440" s="10">
         <v>45576.67453829861</v>
       </c>
@@ -26248,7 +26219,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="441" hidden="1">
+    <row r="441">
       <c r="A441" s="8">
         <v>45576.6767893287</v>
       </c>
@@ -26298,7 +26269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="442" hidden="1">
+    <row r="442">
       <c r="A442" s="10">
         <v>45576.677212361115</v>
       </c>
@@ -26345,7 +26316,7 @@
         <v>61400.0</v>
       </c>
     </row>
-    <row r="443" hidden="1">
+    <row r="443">
       <c r="A443" s="8">
         <v>45576.67822752315</v>
       </c>
@@ -26401,7 +26372,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="444" hidden="1">
+    <row r="444">
       <c r="A444" s="10">
         <v>45576.68016188657</v>
       </c>
@@ -26442,7 +26413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="445" hidden="1">
+    <row r="445">
       <c r="A445" s="8">
         <v>45576.68133679398</v>
       </c>
@@ -26486,7 +26457,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="446" hidden="1">
+    <row r="446">
       <c r="A446" s="10">
         <v>45576.685960787036</v>
       </c>
@@ -26539,7 +26510,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="447" hidden="1">
+    <row r="447">
       <c r="A447" s="8">
         <v>45576.695162407406</v>
       </c>
@@ -26592,7 +26563,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="448" hidden="1">
+    <row r="448">
       <c r="A448" s="10">
         <v>45576.69585289352</v>
       </c>
@@ -26642,7 +26613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="449" hidden="1">
+    <row r="449">
       <c r="A449" s="8">
         <v>45576.71808224537</v>
       </c>
@@ -26695,7 +26666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="450" hidden="1">
+    <row r="450">
       <c r="A450" s="10">
         <v>45576.71903289352</v>
       </c>
@@ -26745,7 +26716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="451" hidden="1">
+    <row r="451">
       <c r="A451" s="8">
         <v>45576.72664396991</v>
       </c>
@@ -26801,7 +26772,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="452" hidden="1">
+    <row r="452">
       <c r="A452" s="10">
         <v>45576.728151435185</v>
       </c>
@@ -26848,7 +26819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="453" hidden="1">
+    <row r="453">
       <c r="A453" s="8">
         <v>45576.74024706018</v>
       </c>
@@ -26892,7 +26863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="454" hidden="1">
+    <row r="454">
       <c r="A454" s="10">
         <v>45576.747288935185</v>
       </c>
@@ -26945,7 +26916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="455" hidden="1">
+    <row r="455">
       <c r="A455" s="8">
         <v>45576.74835150463</v>
       </c>
@@ -27001,7 +26972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="456" hidden="1">
+    <row r="456">
       <c r="A456" s="10">
         <v>45576.75030054398</v>
       </c>
@@ -27051,7 +27022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="457" hidden="1">
+    <row r="457">
       <c r="A457" s="8">
         <v>45576.76591315972</v>
       </c>
@@ -27101,7 +27072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="458" hidden="1">
+    <row r="458">
       <c r="A458" s="10">
         <v>45576.76659269676</v>
       </c>
@@ -27139,7 +27110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="459" hidden="1">
+    <row r="459">
       <c r="A459" s="8">
         <v>45576.79162804398</v>
       </c>
@@ -27189,7 +27160,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="460" hidden="1">
+    <row r="460">
       <c r="A460" s="10">
         <v>45576.79308670139</v>
       </c>
@@ -27239,7 +27210,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="461" hidden="1">
+    <row r="461">
       <c r="A461" s="8">
         <v>45576.79718515046</v>
       </c>
@@ -27292,7 +27263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="462" hidden="1">
+    <row r="462">
       <c r="A462" s="10">
         <v>45576.80136671296</v>
       </c>
@@ -27348,7 +27319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="463" hidden="1">
+    <row r="463">
       <c r="A463" s="8">
         <v>45576.82179307871</v>
       </c>
@@ -27401,7 +27372,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="464" hidden="1">
+    <row r="464">
       <c r="A464" s="10">
         <v>45576.82308209491</v>
       </c>
@@ -27454,7 +27425,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="465" hidden="1">
+    <row r="465">
       <c r="A465" s="8">
         <v>45576.8248193287</v>
       </c>
@@ -27501,7 +27472,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="466" hidden="1">
+    <row r="466">
       <c r="A466" s="10">
         <v>45576.82615247685</v>
       </c>
@@ -27554,7 +27525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="467" hidden="1">
+    <row r="467">
       <c r="A467" s="8">
         <v>45576.827853194445</v>
       </c>
@@ -27607,7 +27578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="468" hidden="1">
+    <row r="468">
       <c r="A468" s="10">
         <v>45576.83141025463</v>
       </c>
@@ -27660,7 +27631,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="469" hidden="1">
+    <row r="469">
       <c r="A469" s="8">
         <v>45576.8333487037</v>
       </c>
@@ -27713,7 +27684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="470" hidden="1">
+    <row r="470">
       <c r="A470" s="10">
         <v>45576.84963976852</v>
       </c>
@@ -27757,7 +27728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="471" hidden="1">
+    <row r="471">
       <c r="A471" s="8">
         <v>45576.88795135416</v>
       </c>
@@ -27810,7 +27781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="472" hidden="1">
+    <row r="472">
       <c r="A472" s="10">
         <v>45576.888950266206</v>
       </c>
@@ -27857,7 +27828,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="473" hidden="1">
+    <row r="473">
       <c r="A473" s="8">
         <v>45576.89071847222</v>
       </c>
@@ -27904,7 +27875,7 @@
         <v>57300.0</v>
       </c>
     </row>
-    <row r="474" hidden="1">
+    <row r="474">
       <c r="A474" s="10">
         <v>45576.913080196755</v>
       </c>
@@ -27954,7 +27925,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="475" hidden="1">
+    <row r="475">
       <c r="A475" s="8">
         <v>45576.92223146991</v>
       </c>
@@ -28004,7 +27975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="476" hidden="1">
+    <row r="476">
       <c r="A476" s="10">
         <v>45576.93384938657</v>
       </c>
@@ -28057,7 +28028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="477" hidden="1">
+    <row r="477">
       <c r="A477" s="8">
         <v>45576.94329063657</v>
       </c>
@@ -28110,7 +28081,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="478" hidden="1">
+    <row r="478">
       <c r="A478" s="10">
         <v>45576.98231368056</v>
       </c>
@@ -28157,7 +28128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="479" hidden="1">
+    <row r="479">
       <c r="A479" s="8">
         <v>45577.40322296297</v>
       </c>
@@ -28204,7 +28175,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="480" hidden="1">
+    <row r="480">
       <c r="A480" s="10">
         <v>45577.425568067134</v>
       </c>
@@ -28260,7 +28231,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="481" hidden="1">
+    <row r="481">
       <c r="A481" s="8">
         <v>45577.436566759265</v>
       </c>
@@ -28310,7 +28281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="482" hidden="1">
+    <row r="482">
       <c r="A482" s="10">
         <v>45577.472655983795</v>
       </c>
@@ -28363,7 +28334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="483" hidden="1">
+    <row r="483">
       <c r="A483" s="8">
         <v>45577.48258116898</v>
       </c>
@@ -28407,7 +28378,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="484" hidden="1">
+    <row r="484">
       <c r="A484" s="10">
         <v>45577.507780844906</v>
       </c>
@@ -28457,7 +28428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="485" hidden="1">
+    <row r="485">
       <c r="A485" s="8">
         <v>45577.51812256944</v>
       </c>
@@ -28504,7 +28475,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="486" hidden="1">
+    <row r="486">
       <c r="A486" s="10">
         <v>45577.56556289352</v>
       </c>
@@ -28554,7 +28525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="487" hidden="1">
+    <row r="487">
       <c r="A487" s="8">
         <v>45577.6079755324</v>
       </c>
@@ -28604,7 +28575,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="488" hidden="1">
+    <row r="488">
       <c r="A488" s="10">
         <v>45577.61497927083</v>
       </c>
@@ -28657,7 +28628,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="489" hidden="1">
+    <row r="489">
       <c r="A489" s="8">
         <v>45577.626248298606</v>
       </c>
@@ -28707,7 +28678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="490" hidden="1">
+    <row r="490">
       <c r="A490" s="10">
         <v>45577.731018101855</v>
       </c>
@@ -28763,7 +28734,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="491" hidden="1">
+    <row r="491">
       <c r="A491" s="8">
         <v>45577.734858090276</v>
       </c>
@@ -28816,7 +28787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="492" hidden="1">
+    <row r="492">
       <c r="A492" s="10">
         <v>45577.851945358794</v>
       </c>
@@ -28869,7 +28840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="493" hidden="1">
+    <row r="493">
       <c r="A493" s="8">
         <v>45577.882678888884</v>
       </c>
@@ -28922,7 +28893,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="494" hidden="1">
+    <row r="494">
       <c r="A494" s="10">
         <v>45577.89598255787</v>
       </c>
@@ -28966,7 +28937,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="495" hidden="1">
+    <row r="495">
       <c r="A495" s="8">
         <v>45577.912003854166</v>
       </c>
@@ -29016,7 +28987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="496" hidden="1">
+    <row r="496">
       <c r="A496" s="10">
         <v>45578.39685319444</v>
       </c>
@@ -29072,7 +29043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="497" hidden="1">
+    <row r="497">
       <c r="A497" s="8">
         <v>45578.41614328704</v>
       </c>
@@ -29119,7 +29090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="498" hidden="1">
+    <row r="498">
       <c r="A498" s="10">
         <v>45578.42316318287</v>
       </c>
@@ -29163,7 +29134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="499" hidden="1">
+    <row r="499">
       <c r="A499" s="8">
         <v>45578.44982336806</v>
       </c>
@@ -29216,7 +29187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="500" hidden="1">
+    <row r="500">
       <c r="A500" s="10">
         <v>45578.507898819444</v>
       </c>
@@ -29266,7 +29237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="501" hidden="1">
+    <row r="501">
       <c r="A501" s="8">
         <v>45578.53546993056</v>
       </c>
@@ -29322,7 +29293,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="502" hidden="1">
+    <row r="502">
       <c r="A502" s="10">
         <v>45578.54433121528</v>
       </c>
@@ -29375,7 +29346,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="503" hidden="1">
+    <row r="503">
       <c r="A503" s="8">
         <v>45578.641706828705</v>
       </c>
@@ -29425,7 +29396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="504" hidden="1">
+    <row r="504">
       <c r="A504" s="10">
         <v>45578.65042640046</v>
       </c>
@@ -29475,7 +29446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="505" hidden="1">
+    <row r="505">
       <c r="A505" s="8">
         <v>45578.83347195602</v>
       </c>
@@ -29516,7 +29487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="506" hidden="1">
+    <row r="506">
       <c r="A506" s="10">
         <v>45578.843908703704</v>
       </c>
@@ -29569,7 +29540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="507" hidden="1">
+    <row r="507">
       <c r="A507" s="8">
         <v>45578.86637207176</v>
       </c>
@@ -29610,7 +29581,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="508" hidden="1">
+    <row r="508">
       <c r="A508" s="10">
         <v>45578.9619325463</v>
       </c>
@@ -29666,7 +29637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="509" hidden="1">
+    <row r="509">
       <c r="A509" s="8">
         <v>45579.03216472222</v>
       </c>
@@ -29713,7 +29684,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="510" hidden="1">
+    <row r="510">
       <c r="A510" s="10">
         <v>45579.099018657405</v>
       </c>
@@ -29760,7 +29731,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="511" hidden="1">
+    <row r="511">
       <c r="A511" s="8">
         <v>45579.333134120374</v>
       </c>
@@ -29804,7 +29775,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="512" hidden="1">
+    <row r="512">
       <c r="A512" s="10">
         <v>45579.35337251157</v>
       </c>
@@ -29854,7 +29825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="513" hidden="1">
+    <row r="513">
       <c r="A513" s="8">
         <v>45579.35348077546</v>
       </c>
@@ -29904,7 +29875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="514" hidden="1">
+    <row r="514">
       <c r="A514" s="10">
         <v>45579.35938783565</v>
       </c>
@@ -29954,7 +29925,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="515" hidden="1">
+    <row r="515">
       <c r="A515" s="8">
         <v>45579.36700229166</v>
       </c>
@@ -30013,7 +29984,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="516" hidden="1">
+    <row r="516">
       <c r="A516" s="10">
         <v>45579.37043802084</v>
       </c>
@@ -30066,7 +30037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="517" hidden="1">
+    <row r="517">
       <c r="A517" s="8">
         <v>45579.371658993055</v>
       </c>
@@ -30113,7 +30084,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="518" hidden="1">
+    <row r="518">
       <c r="A518" s="10">
         <v>45579.372124444446</v>
       </c>
@@ -30160,7 +30131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="519" hidden="1">
+    <row r="519">
       <c r="A519" s="8">
         <v>45579.37487554398</v>
       </c>
@@ -30210,7 +30181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="520" hidden="1">
+    <row r="520">
       <c r="A520" s="10">
         <v>45579.38114912037</v>
       </c>
@@ -30266,7 +30237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="521" hidden="1">
+    <row r="521">
       <c r="A521" s="8">
         <v>45579.389969571756</v>
       </c>
@@ -30310,7 +30281,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="522" hidden="1">
+    <row r="522">
       <c r="A522" s="10">
         <v>45579.39031347222</v>
       </c>
@@ -30360,7 +30331,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="523" hidden="1">
+    <row r="523">
       <c r="A523" s="8">
         <v>45579.3956359838</v>
       </c>
@@ -30416,7 +30387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="524" hidden="1">
+    <row r="524">
       <c r="A524" s="10">
         <v>45579.396978969904</v>
       </c>
@@ -30466,7 +30437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="525" hidden="1">
+    <row r="525">
       <c r="A525" s="8">
         <v>45579.40468813658</v>
       </c>
@@ -30516,7 +30487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="526" hidden="1">
+    <row r="526">
       <c r="A526" s="10">
         <v>45579.423564247685</v>
       </c>
@@ -30572,7 +30543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="527" hidden="1">
+    <row r="527">
       <c r="A527" s="8">
         <v>45579.42445369213</v>
       </c>
@@ -30616,7 +30587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="528" hidden="1">
+    <row r="528">
       <c r="A528" s="10">
         <v>45579.4336012037</v>
       </c>
@@ -30660,7 +30631,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="529" hidden="1">
+    <row r="529">
       <c r="A529" s="8">
         <v>45579.437720648144</v>
       </c>
@@ -30710,7 +30681,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="530" hidden="1">
+    <row r="530">
       <c r="A530" s="10">
         <v>45579.460584189816</v>
       </c>
@@ -30766,7 +30737,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="531" hidden="1">
+    <row r="531">
       <c r="A531" s="8">
         <v>45579.46078929398</v>
       </c>
@@ -30816,7 +30787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="532" hidden="1">
+    <row r="532">
       <c r="A532" s="10">
         <v>45579.47763518519</v>
       </c>
@@ -30869,7 +30840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="533" hidden="1">
+    <row r="533">
       <c r="A533" s="8">
         <v>45579.49027303241</v>
       </c>
@@ -30919,7 +30890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="534" hidden="1">
+    <row r="534">
       <c r="A534" s="10">
         <v>45579.496949849534</v>
       </c>
@@ -30969,7 +30940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="535" hidden="1">
+    <row r="535">
       <c r="A535" s="8">
         <v>45579.549651423615</v>
       </c>
@@ -31013,7 +30984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="536" hidden="1">
+    <row r="536">
       <c r="A536" s="10">
         <v>45579.54978498843</v>
       </c>
@@ -31063,7 +31034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="537" hidden="1">
+    <row r="537">
       <c r="A537" s="8">
         <v>45579.554092280094</v>
       </c>
@@ -31113,7 +31084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="538" hidden="1">
+    <row r="538">
       <c r="A538" s="10">
         <v>45579.575425</v>
       </c>
@@ -31154,7 +31125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="539" hidden="1">
+    <row r="539">
       <c r="A539" s="8">
         <v>45579.57696773148</v>
       </c>
@@ -31204,7 +31175,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="540" hidden="1">
+    <row r="540">
       <c r="A540" s="10">
         <v>45579.57812277778</v>
       </c>
@@ -31254,7 +31225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="541" hidden="1">
+    <row r="541">
       <c r="A541" s="8">
         <v>45579.57956726852</v>
       </c>
@@ -31298,7 +31269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="542" hidden="1">
+    <row r="542">
       <c r="A542" s="10">
         <v>45579.59120809028</v>
       </c>
@@ -31354,7 +31325,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="543" hidden="1">
+    <row r="543">
       <c r="A543" s="8">
         <v>45579.60777451389</v>
       </c>
@@ -31404,7 +31375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="544" hidden="1">
+    <row r="544">
       <c r="A544" s="10">
         <v>45579.6152653125</v>
       </c>
@@ -31463,7 +31434,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="545" hidden="1">
+    <row r="545">
       <c r="A545" s="8">
         <v>45579.63275729166</v>
       </c>
@@ -31516,7 +31487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="546" hidden="1">
+    <row r="546">
       <c r="A546" s="10">
         <v>45579.6430715162</v>
       </c>
@@ -31572,7 +31543,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="547" hidden="1">
+    <row r="547">
       <c r="A547" s="8">
         <v>45579.648313287034</v>
       </c>
@@ -31625,7 +31596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="548" hidden="1">
+    <row r="548">
       <c r="A548" s="10">
         <v>45579.65148310185</v>
       </c>
@@ -31675,7 +31646,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="549" hidden="1">
+    <row r="549">
       <c r="A549" s="8">
         <v>45579.681650150465</v>
       </c>
@@ -31725,7 +31696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="550" hidden="1">
+    <row r="550">
       <c r="A550" s="10">
         <v>45579.7012287963</v>
       </c>
@@ -31778,7 +31749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="551" hidden="1">
+    <row r="551">
       <c r="A551" s="8">
         <v>45579.74740329861</v>
       </c>
@@ -31822,7 +31793,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="552" hidden="1">
+    <row r="552">
       <c r="A552" s="10">
         <v>45579.75851275463</v>
       </c>
@@ -31872,7 +31843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="553" hidden="1">
+    <row r="553">
       <c r="A553" s="8">
         <v>45579.774387592595</v>
       </c>
@@ -31922,7 +31893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="554" hidden="1">
+    <row r="554">
       <c r="A554" s="10">
         <v>45579.822511770835</v>
       </c>
@@ -31975,7 +31946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="555" hidden="1">
+    <row r="555">
       <c r="A555" s="8">
         <v>45579.897189814816</v>
       </c>
@@ -32025,7 +31996,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="556" hidden="1">
+    <row r="556">
       <c r="A556" s="10">
         <v>45579.91885194444</v>
       </c>
@@ -32078,7 +32049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="557" hidden="1">
+    <row r="557">
       <c r="A557" s="8">
         <v>45579.97978790509</v>
       </c>
@@ -32128,7 +32099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="558" hidden="1">
+    <row r="558">
       <c r="A558" s="10">
         <v>45579.9866334375</v>
       </c>
@@ -32178,7 +32149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="559" hidden="1">
+    <row r="559">
       <c r="A559" s="8">
         <v>45580.01468525463</v>
       </c>
@@ -32228,7 +32199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="560" hidden="1">
+    <row r="560">
       <c r="A560" s="10">
         <v>45580.074247488425</v>
       </c>
@@ -32278,7 +32249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="561" hidden="1">
+    <row r="561">
       <c r="A561" s="8">
         <v>45580.36707716435</v>
       </c>
@@ -32328,7 +32299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="562" hidden="1">
+    <row r="562">
       <c r="A562" s="10">
         <v>45580.41256515046</v>
       </c>
@@ -32366,7 +32337,7 @@
         <v>82000.0</v>
       </c>
     </row>
-    <row r="563" hidden="1">
+    <row r="563">
       <c r="A563" s="8">
         <v>45580.44071685185</v>
       </c>
@@ -32413,7 +32384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="564" hidden="1">
+    <row r="564">
       <c r="A564" s="10">
         <v>45580.46616278935</v>
       </c>
@@ -32457,7 +32428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="565" hidden="1">
+    <row r="565">
       <c r="A565" s="8">
         <v>45580.4963265625</v>
       </c>
@@ -32495,7 +32466,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="566" hidden="1">
+    <row r="566">
       <c r="A566" s="10">
         <v>45580.53603998842</v>
       </c>
@@ -32539,7 +32510,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="567" hidden="1">
+    <row r="567">
       <c r="A567" s="8">
         <v>45580.58439559028</v>
       </c>
@@ -32586,7 +32557,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="568" hidden="1">
+    <row r="568">
       <c r="A568" s="10">
         <v>45580.6215663426</v>
       </c>
@@ -32630,7 +32601,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="569" hidden="1">
+    <row r="569">
       <c r="A569" s="8">
         <v>45580.64974621528</v>
       </c>
@@ -32677,7 +32648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="570" hidden="1">
+    <row r="570">
       <c r="A570" s="10">
         <v>45580.65263627315</v>
       </c>
@@ -32730,7 +32701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="571" hidden="1">
+    <row r="571">
       <c r="A571" s="8">
         <v>45580.65812359954</v>
       </c>
@@ -32780,7 +32751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="572" hidden="1">
+    <row r="572">
       <c r="A572" s="10">
         <v>45580.66539076389</v>
       </c>
@@ -32830,7 +32801,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="573" hidden="1">
+    <row r="573">
       <c r="A573" s="8">
         <v>45580.67552197917</v>
       </c>
@@ -32883,7 +32854,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="574" hidden="1">
+    <row r="574">
       <c r="A574" s="10">
         <v>45580.677098506945</v>
       </c>
@@ -32930,7 +32901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="575" hidden="1">
+    <row r="575">
       <c r="A575" s="8">
         <v>45580.690445949076</v>
       </c>
@@ -32986,7 +32957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="576" hidden="1">
+    <row r="576">
       <c r="A576" s="10">
         <v>45580.69091803241</v>
       </c>
@@ -33033,7 +33004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="577" hidden="1">
+    <row r="577">
       <c r="A577" s="8">
         <v>45580.7096596412</v>
       </c>
@@ -33083,7 +33054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="578" hidden="1">
+    <row r="578">
       <c r="A578" s="10">
         <v>45580.841910648145</v>
       </c>
@@ -33139,7 +33110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="579" hidden="1">
+    <row r="579">
       <c r="A579" s="8">
         <v>45580.90544337963</v>
       </c>
@@ -33186,7 +33157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="580" hidden="1">
+    <row r="580">
       <c r="A580" s="10">
         <v>45581.349867893514</v>
       </c>
@@ -33239,7 +33210,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="581" hidden="1">
+    <row r="581">
       <c r="A581" s="8">
         <v>45581.36409716435</v>
       </c>
@@ -33292,7 +33263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="582" hidden="1">
+    <row r="582">
       <c r="A582" s="10">
         <v>45581.365039675926</v>
       </c>
@@ -33348,7 +33319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="583" hidden="1">
+    <row r="583">
       <c r="A583" s="8">
         <v>45581.3760165162</v>
       </c>
@@ -33398,7 +33369,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="584" hidden="1">
+    <row r="584">
       <c r="A584" s="10">
         <v>45581.38950510416</v>
       </c>
@@ -33448,7 +33419,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="585" hidden="1">
+    <row r="585">
       <c r="A585" s="8">
         <v>45581.393000543976</v>
       </c>
@@ -33498,7 +33469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="586" hidden="1">
+    <row r="586">
       <c r="A586" s="10">
         <v>45581.408950868055</v>
       </c>
@@ -33551,7 +33522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="587" hidden="1">
+    <row r="587">
       <c r="A587" s="8">
         <v>45581.41219886574</v>
       </c>
@@ -33604,7 +33575,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="588" hidden="1">
+    <row r="588">
       <c r="A588" s="10">
         <v>45581.42365607639</v>
       </c>
@@ -33657,7 +33628,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="589" hidden="1">
+    <row r="589">
       <c r="A589" s="8">
         <v>45581.425264895835</v>
       </c>
@@ -33707,7 +33678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="590" hidden="1">
+    <row r="590">
       <c r="A590" s="10">
         <v>45581.43751033564</v>
       </c>
@@ -33763,7 +33734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="591" hidden="1">
+    <row r="591">
       <c r="A591" s="8">
         <v>45581.46637005787</v>
       </c>
@@ -33860,7 +33831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="593" hidden="1">
+    <row r="593">
       <c r="A593" s="8">
         <v>45581.497871921296</v>
       </c>
@@ -33913,7 +33884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="594" hidden="1">
+    <row r="594">
       <c r="A594" s="10">
         <v>45581.49808449074</v>
       </c>
@@ -33969,7 +33940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="595" hidden="1">
+    <row r="595">
       <c r="A595" s="8">
         <v>45581.49854959491</v>
       </c>
@@ -34004,7 +33975,7 @@
         <v>4500.0</v>
       </c>
     </row>
-    <row r="596" hidden="1">
+    <row r="596">
       <c r="A596" s="10">
         <v>45581.516049791666</v>
       </c>
@@ -34057,7 +34028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="597" hidden="1">
+    <row r="597">
       <c r="A597" s="8">
         <v>45581.518909872684</v>
       </c>
@@ -34104,7 +34075,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="598" hidden="1">
+    <row r="598">
       <c r="A598" s="10">
         <v>45581.53927472222</v>
       </c>
@@ -34154,7 +34125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="599" hidden="1">
+    <row r="599">
       <c r="A599" s="8">
         <v>45581.55111215278</v>
       </c>
@@ -34216,7 +34187,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="600" hidden="1">
+    <row r="600">
       <c r="A600" s="10">
         <v>45581.553071064816</v>
       </c>
@@ -34260,7 +34231,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="601" hidden="1">
+    <row r="601">
       <c r="A601" s="8">
         <v>45581.57027832176</v>
       </c>
@@ -34310,7 +34281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="602" hidden="1">
+    <row r="602">
       <c r="A602" s="10">
         <v>45581.58376091435</v>
       </c>
@@ -34360,7 +34331,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="603" hidden="1">
+    <row r="603">
       <c r="A603" s="8">
         <v>45581.59263827546</v>
       </c>
@@ -34413,7 +34384,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="604" hidden="1">
+    <row r="604">
       <c r="A604" s="10">
         <v>45581.61174342592</v>
       </c>
@@ -34448,7 +34419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="605" hidden="1">
+    <row r="605">
       <c r="A605" s="8">
         <v>45581.64990887731</v>
       </c>
@@ -34498,7 +34469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="606" hidden="1">
+    <row r="606">
       <c r="A606" s="10">
         <v>45581.658417094906</v>
       </c>
@@ -34542,7 +34513,7 @@
         <v>6000.0</v>
       </c>
     </row>
-    <row r="607" hidden="1">
+    <row r="607">
       <c r="A607" s="8">
         <v>45581.676150405096</v>
       </c>
@@ -34592,7 +34563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="608" hidden="1">
+    <row r="608">
       <c r="A608" s="10">
         <v>45581.70968486111</v>
       </c>
@@ -34698,7 +34669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="610" hidden="1">
+    <row r="610">
       <c r="A610" s="10">
         <v>45581.85084438657</v>
       </c>
@@ -34807,7 +34778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="612" hidden="1">
+    <row r="612">
       <c r="A612" s="10">
         <v>45581.91643815972</v>
       </c>
@@ -34860,7 +34831,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="613" hidden="1">
+    <row r="613">
       <c r="A613" s="8">
         <v>45581.97261467593</v>
       </c>
@@ -34910,7 +34881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="614" hidden="1">
+    <row r="614">
       <c r="A614" s="10">
         <v>45581.97288</v>
       </c>
@@ -34960,7 +34931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="615" hidden="1">
+    <row r="615">
       <c r="A615" s="8">
         <v>45582.30111706018</v>
       </c>
@@ -35013,7 +34984,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="616" hidden="1">
+    <row r="616">
       <c r="A616" s="10">
         <v>45582.31918619213</v>
       </c>
@@ -35060,7 +35031,7 @@
         <v>5800.0</v>
       </c>
     </row>
-    <row r="617" hidden="1">
+    <row r="617">
       <c r="A617" s="8">
         <v>45582.36409162037</v>
       </c>
@@ -35116,7 +35087,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="618" hidden="1">
+    <row r="618">
       <c r="A618" s="10">
         <v>45582.41878395833</v>
       </c>
@@ -35163,7 +35134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="619" hidden="1">
+    <row r="619">
       <c r="A619" s="8">
         <v>45582.435404606484</v>
       </c>
@@ -35219,7 +35190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="620" hidden="1">
+    <row r="620">
       <c r="A620" s="10">
         <v>45582.458640937504</v>
       </c>
@@ -35319,7 +35290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="622" hidden="1">
+    <row r="622">
       <c r="A622" s="10">
         <v>45582.670525625</v>
       </c>
@@ -35375,7 +35346,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="623" hidden="1">
+    <row r="623">
       <c r="A623" s="8">
         <v>45582.675837511575</v>
       </c>
@@ -35419,7 +35390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="624" hidden="1">
+    <row r="624">
       <c r="A624" s="10">
         <v>45582.79408216436</v>
       </c>
